--- a/netforce_account_report/netforce_account_report/reports/profit_loss.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/profit_loss.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="206" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="206" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>{{col_if col0}}</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>{{fmt_date date_from}} to {{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t>{{#if track_name}}</t>
+  </si>
+  <si>
+    <t>Tracking: {{track_name}}</t>
+  </si>
+  <si>
+    <t>{{/if}}</t>
   </si>
   <si>
     <t>{{col0}}</t>
@@ -181,66 +190,72 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
-    <font>
-      <name val="Arial"/>
+  <fonts count="10">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color rgb="00800000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <color rgb="00800000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,33 +267,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
-        <bgColor rgb="00CCCCFF"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00000080"/>
-        <bgColor rgb="00000080"/>
+        <fgColor rgb="FF000080"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="hair"/>
@@ -287,75 +302,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+  <cellXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -365,32 +424,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.9725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4540816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4540816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6122448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.90816326530612"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1" s="1">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -432,333 +492,354 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="4">
+    <row r="2" s="4" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3" s="4">
+    <row r="3" s="4" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4" s="1">
+    <row r="4" s="1" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5" s="1">
-      <c r="B5" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6" s="6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+    <row r="5" s="1" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="M9" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+      <c r="N9" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="0" t="s">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="E15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="F15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="G15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="H15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="I15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="J15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="K15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="L15" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16" s="12">
-      <c r="A16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="O15" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" s="14" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" s="16" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" s="16" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" s="18" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="12" t="s">
+    </row>
+    <row r="24" s="16" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" s="19" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="D25" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="E25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="F25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="G25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="H25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="I25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="J25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="K25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="L25" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17" s="14">
-      <c r="A17" s="13" t="s">
+      <c r="M25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18" s="14">
-      <c r="A18" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19" s="16">
-      <c r="A19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="P25" s="18"/>
+    </row>
+    <row r="26" s="16" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20" s="14">
-      <c r="A20" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21" s="14">
-      <c r="A21" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22" s="17">
-      <c r="A22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="16" t="s">
+    </row>
+    <row r="27" s="10" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23" s="14">
-      <c r="A23" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
-        <v>52</v>
+    </row>
+    <row r="28" s="10" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
